--- a/results/2025-26/schBotolaD2/CalendarD2-v0/summaryPerTeamD2.xlsx
+++ b/results/2025-26/schBotolaD2/CalendarD2-v0/summaryPerTeamD2.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Calendar" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Calendar!$A$1:$H$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Calendar!$A$1:$H$81</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -2975,7 +2975,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H80"/>
+  <autoFilter ref="A1:H81"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>